--- a/Data Buku.xlsx
+++ b/Data Buku.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC7F18C-7003-4DFF-8DDA-60A5F9ED513F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE04BE0-9753-4C40-8B8D-1D1B8B9C3CB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BB908288-441E-4F6D-A45E-2DAC2A19AA27}"/>
   </bookViews>
@@ -845,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC1E9DCC-C6D3-4F67-B677-D9B41772CC8B}">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1408,154 +1408,94 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
+      <c r="A22" s="1"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
+      <c r="A23" s="1"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
+      <c r="A24" s="1"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
+      <c r="A25" s="1"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
+      <c r="A26" s="1"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
+      <c r="A27" s="1"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
+      <c r="A28" s="1"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
+      <c r="A29" s="1"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
+      <c r="A30" s="1"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
+      <c r="A31" s="1"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
+      <c r="A32" s="1"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
+      <c r="A33" s="1"/>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
+      <c r="A34" s="1"/>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
+      <c r="A35" s="1"/>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
+      <c r="A36" s="1"/>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
+      <c r="A37" s="1"/>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
+      <c r="A38" s="1"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
+      <c r="A39" s="1"/>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
+      <c r="A40" s="1"/>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
+      <c r="A41" s="1"/>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
+      <c r="A42" s="1"/>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
+      <c r="A43" s="1"/>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
+      <c r="A44" s="1"/>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
+      <c r="A45" s="1"/>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
+      <c r="A46" s="1"/>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
+      <c r="A47" s="1"/>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
+      <c r="A48" s="1"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
+      <c r="A49" s="1"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
+      <c r="A50" s="1"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
+      <c r="A51" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
